--- a/dados-teste-desempenho.xlsx
+++ b/dados-teste-desempenho.xlsx
@@ -56,9 +56,6 @@
     <t>Treina?</t>
   </si>
   <si>
-    <t>João Silva</t>
-  </si>
-  <si>
     <t>joao@email.com</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Nenhum problema de saúde conhecido.</t>
   </si>
   <si>
-    <t>Nenhuma lesão</t>
-  </si>
-  <si>
     <t>Perder peso e ganhar</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Jonas Silva</t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -832,159 +832,159 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>31182</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>33136</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>29535</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>28218</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="6:6">
